--- a/План.xlsx
+++ b/План.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artem/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artem/ZinkinPython/Evghenii/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B68FD6D-F465-3848-9518-C9731B662D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FC22FC-5D13-9645-9012-2EAC6A9E5CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="1180" windowWidth="28040" windowHeight="17360" xr2:uid="{492334A5-A457-A943-9210-A0A9F7047A2B}"/>
+    <workbookView xWindow="2080" yWindow="560" windowWidth="28040" windowHeight="17360" xr2:uid="{492334A5-A457-A943-9210-A0A9F7047A2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>col1</t>
   </si>
@@ -66,9 +66,6 @@
     <t>buy/sale</t>
   </si>
   <si>
-    <t>tax</t>
-  </si>
-  <si>
     <t>amount</t>
   </si>
   <si>
@@ -94,13 +91,25 @@
   </si>
   <si>
     <t>quantity</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>has_tax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +133,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -145,11 +162,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -467,7 +485,7 @@
   <dimension ref="B1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,7 +524,7 @@
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -518,19 +536,25 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
       <c r="I3">
         <v>1</v>
       </c>
@@ -552,19 +576,19 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
@@ -572,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
@@ -580,11 +604,12 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>